--- a/biology/Zoologie/Aulopus/Aulopus.xlsx
+++ b/biology/Zoologie/Aulopus/Aulopus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aulopus est un genre de poissons osseux marins de la famille des Aulopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aulopus est un genre de poissons osseux marins de la famille des Aulopidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                            (12 novembre 2023)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                            (12 novembre 2023) :
 Aulopus bajacali Parin &amp; Kotlyar, 1984
 Aulopus cadenati Poll, 1953
 Aulopus filamentosus (Bloch, 1792)</t>
@@ -544,9 +558,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Aulopus a été créé en 1861 par le naturaliste français Hippolyte Cloquet (1787-1840) avec pour espèce type Aulopus filamentosus (Bloch, 1792)[3], initialement décrite sous le protonyme Salmo filamentosus[4]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Aulopus a été créé en 1861 par le naturaliste français Hippolyte Cloquet (1787-1840) avec pour espèce type Aulopus filamentosus (Bloch, 1792), initialement décrite sous le protonyme Salmo filamentosus
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aulopus vient vraisemblablement du grec aulopus « flûte/pipeau ». D'après une note de Cloquet, le nom aurait comme signification « poisson inconnu »[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aulopus vient vraisemblablement du grec aulopus « flûte/pipeau ». D'après une note de Cloquet, le nom aurait comme signification « poisson inconnu ».
 </t>
         </is>
       </c>
@@ -607,6 +625,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
